--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/SOUTH_DAKOTA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/SOUTH_DAKOTA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -843,7 +843,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -900,12 +900,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C38">
@@ -931,7 +931,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C40">
@@ -957,7 +957,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C42">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C46">
@@ -1071,7 +1071,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C50">
@@ -1084,7 +1084,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C51">
@@ -1097,7 +1097,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C52">
@@ -1130,7 +1130,7 @@
         <v>15</v>
       </c>
       <c r="D54">
-        <v>0.09803921568627451</v>
+        <v>0.09803921568627452</v>
       </c>
     </row>
     <row r="55">
@@ -1250,7 +1250,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C63">
@@ -1263,7 +1263,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C64">
@@ -1276,7 +1276,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C65">
@@ -1333,7 +1333,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C69">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C84">
@@ -1556,7 +1556,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C85">
@@ -1639,7 +1639,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C91">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C101">
@@ -1818,7 +1818,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C104">
@@ -2090,7 +2090,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C123">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C129">
@@ -2199,7 +2199,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C131">
@@ -2233,41 +2233,6 @@
       </c>
       <c r="D133">
         <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/SOUTH_DAKOTA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/SOUTH_DAKOTA_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Chilón</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Santa Isabel</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>León</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -1030,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1043,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1056,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -1069,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1082,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1095,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1108,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1121,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1152,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1183,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1196,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1209,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1222,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1235,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1248,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -1261,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -1274,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -1287,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -1300,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1331,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -1344,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -1357,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1370,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1383,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1396,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Nuevo Urecho</t>
@@ -1409,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1422,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1453,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -1466,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -1479,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1510,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1523,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1554,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -1567,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1598,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -1611,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>San Jerónimo Sosola</t>
@@ -1624,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -1637,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Zapotitlán Del Río</t>
@@ -1650,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1681,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -1694,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1707,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -1720,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Soltepec</t>
@@ -1733,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -1746,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -1759,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1790,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -1803,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -1816,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -1829,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1860,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -1873,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -1886,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -1899,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1930,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -1943,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Huatabampo</t>
@@ -1956,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1987,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2018,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2049,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -2062,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -2075,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -2088,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2101,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -2114,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -2127,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -2140,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -2153,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2184,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2197,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -2210,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Total</t>
